--- a/Code/Results/Cases/Case_8_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.7640757304371</v>
+        <v>12.61174421069976</v>
       </c>
       <c r="C2">
-        <v>8.255819311107579</v>
+        <v>8.748772972675749</v>
       </c>
       <c r="D2">
-        <v>7.94695764541014</v>
+        <v>8.172847357646933</v>
       </c>
       <c r="E2">
-        <v>11.8200946855304</v>
+        <v>12.03150502769922</v>
       </c>
       <c r="F2">
-        <v>23.950702514476</v>
+        <v>23.11732463198161</v>
       </c>
       <c r="G2">
-        <v>2.107937059903587</v>
+        <v>4.935275680406095</v>
       </c>
       <c r="H2">
-        <v>1.96510713064854</v>
+        <v>1.782492761268375</v>
       </c>
       <c r="I2">
-        <v>2.853395338525417</v>
+        <v>2.616646445297697</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.06995579263974</v>
+        <v>14.26325215005321</v>
       </c>
       <c r="L2">
-        <v>7.03168548486147</v>
+        <v>12.12156400452071</v>
       </c>
       <c r="M2">
-        <v>11.631270323666</v>
+        <v>8.985228398151419</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.100419014464491</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.74839520743788</v>
       </c>
       <c r="P2">
-        <v>12.82584987716815</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.82436345106923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.56434293095809</v>
+      </c>
+      <c r="S2">
+        <v>16.0275489866299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.92737962482957</v>
+        <v>11.8303078845718</v>
       </c>
       <c r="C3">
-        <v>7.743563203844402</v>
+        <v>8.16116414190267</v>
       </c>
       <c r="D3">
-        <v>7.539704816381942</v>
+        <v>7.767371488325497</v>
       </c>
       <c r="E3">
-        <v>11.25154566402896</v>
+        <v>11.47781709129205</v>
       </c>
       <c r="F3">
-        <v>23.51000726190876</v>
+        <v>22.68130965884326</v>
       </c>
       <c r="G3">
-        <v>2.111375876702765</v>
+        <v>5.391950290722206</v>
       </c>
       <c r="H3">
-        <v>2.176113563229776</v>
+        <v>1.975897073440686</v>
       </c>
       <c r="I3">
-        <v>2.991227706349728</v>
+        <v>2.730038264556526</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.11510613059466</v>
+        <v>14.31149745117038</v>
       </c>
       <c r="L3">
-        <v>6.828993674906211</v>
+        <v>12.25176438791075</v>
       </c>
       <c r="M3">
-        <v>10.92322046750702</v>
+        <v>8.950044390752948</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.908398347122375</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.05635688275274</v>
       </c>
       <c r="P3">
-        <v>12.96023470703665</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.7363425752146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.6779642155527</v>
+      </c>
+      <c r="S3">
+        <v>15.93143173670325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.38013794286754</v>
+        <v>11.31938582320319</v>
       </c>
       <c r="C4">
-        <v>7.415082176667232</v>
+        <v>7.783731073887265</v>
       </c>
       <c r="D4">
-        <v>7.27947916457693</v>
+        <v>7.509211630059287</v>
       </c>
       <c r="E4">
-        <v>10.88771734208855</v>
+        <v>11.12437649959606</v>
       </c>
       <c r="F4">
-        <v>23.24177530340124</v>
+        <v>22.41315985257729</v>
       </c>
       <c r="G4">
-        <v>2.113561062550714</v>
+        <v>5.682276150939691</v>
       </c>
       <c r="H4">
-        <v>2.310693272753974</v>
+        <v>2.099348453697246</v>
       </c>
       <c r="I4">
-        <v>3.079833938256773</v>
+        <v>2.803396316937458</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.14629710285179</v>
+        <v>14.34283074312596</v>
       </c>
       <c r="L4">
-        <v>6.700755228568159</v>
+        <v>12.33320241849894</v>
       </c>
       <c r="M4">
-        <v>10.46366711920373</v>
+        <v>8.945685315589273</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.78708738411694</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.60769199034596</v>
       </c>
       <c r="P4">
-        <v>13.04439265328823</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.68727591677741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.74936316675779</v>
+      </c>
+      <c r="S4">
+        <v>15.87504662840056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.14347378231657</v>
+        <v>11.09823608234505</v>
       </c>
       <c r="C5">
-        <v>7.286768057361133</v>
+        <v>7.634922500299932</v>
       </c>
       <c r="D5">
-        <v>7.172754858496933</v>
+        <v>7.403578945958324</v>
       </c>
       <c r="E5">
-        <v>10.73651396593099</v>
+        <v>10.9777460323314</v>
       </c>
       <c r="F5">
-        <v>23.12685628451918</v>
+        <v>22.29744912232761</v>
       </c>
       <c r="G5">
-        <v>2.114475971331872</v>
+        <v>5.803885818430634</v>
       </c>
       <c r="H5">
-        <v>2.367022646643643</v>
+        <v>2.151036325834646</v>
       </c>
       <c r="I5">
-        <v>3.119778533879851</v>
+        <v>2.837653322992585</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.15532191840228</v>
+        <v>14.35149479332766</v>
       </c>
       <c r="L5">
-        <v>6.647324456601353</v>
+        <v>12.36250098009905</v>
       </c>
       <c r="M5">
-        <v>10.26998287182816</v>
+        <v>8.945755861276739</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.73658535663377</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.4187500891951</v>
       </c>
       <c r="P5">
-        <v>13.07882982686633</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.66399601111155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.77866422757522</v>
+      </c>
+      <c r="S5">
+        <v>15.84809333682236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.09730254761146</v>
+        <v>11.05479089515196</v>
       </c>
       <c r="C6">
-        <v>7.276306026458215</v>
+        <v>7.621155470512611</v>
       </c>
       <c r="D6">
-        <v>7.157069125292457</v>
+        <v>7.388070968640326</v>
       </c>
       <c r="E6">
-        <v>10.71198723495709</v>
+        <v>10.95400706901761</v>
       </c>
       <c r="F6">
-        <v>23.10010805719062</v>
+        <v>22.27038034545253</v>
       </c>
       <c r="G6">
-        <v>2.114635894563762</v>
+        <v>5.825173969868431</v>
       </c>
       <c r="H6">
-        <v>2.376709230952886</v>
+        <v>2.159918348616077</v>
       </c>
       <c r="I6">
-        <v>3.13011262259039</v>
+        <v>2.847819451068939</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.15132801988674</v>
+        <v>14.34743530779382</v>
       </c>
       <c r="L6">
-        <v>6.638080114617225</v>
+        <v>12.36218385149451</v>
       </c>
       <c r="M6">
-        <v>10.23719778185708</v>
+        <v>8.942963788577654</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.727847741882077</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.38679098566568</v>
       </c>
       <c r="P6">
-        <v>13.08423701057544</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.65468043850129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.78330531911281</v>
+      </c>
+      <c r="S6">
+        <v>15.83799831644713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.3600220638668</v>
+        <v>11.29017288393294</v>
       </c>
       <c r="C7">
-        <v>7.442866545190739</v>
+        <v>7.787280031711941</v>
       </c>
       <c r="D7">
-        <v>7.283896256543564</v>
+        <v>7.524947844933394</v>
       </c>
       <c r="E7">
-        <v>10.88782690425695</v>
+        <v>11.12871621335158</v>
       </c>
       <c r="F7">
-        <v>23.21931030335715</v>
+        <v>22.34872177507511</v>
       </c>
       <c r="G7">
-        <v>2.113591723337711</v>
+        <v>5.737544451256627</v>
       </c>
       <c r="H7">
-        <v>2.312133861156558</v>
+        <v>2.10195933504556</v>
       </c>
       <c r="I7">
-        <v>3.089998957427444</v>
+        <v>2.816796651325884</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.13128969353312</v>
+        <v>14.31034639480299</v>
       </c>
       <c r="L7">
-        <v>6.699182836094018</v>
+        <v>12.30370193828207</v>
       </c>
       <c r="M7">
-        <v>10.46041122862505</v>
+        <v>8.926499460564544</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.78393648501025</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.59066996856022</v>
       </c>
       <c r="P7">
-        <v>13.04398910925984</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.67191761935642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.74832460088505</v>
+      </c>
+      <c r="S7">
+        <v>15.82940206599751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.46181368249753</v>
+        <v>12.29885166786076</v>
       </c>
       <c r="C8">
-        <v>8.118246559936205</v>
+        <v>8.511244189971555</v>
       </c>
       <c r="D8">
-        <v>7.815954213671036</v>
+        <v>8.077797113562854</v>
       </c>
       <c r="E8">
-        <v>11.62986265416052</v>
+        <v>11.85935289738939</v>
       </c>
       <c r="F8">
-        <v>23.77135312938159</v>
+        <v>22.8056275617244</v>
       </c>
       <c r="G8">
-        <v>2.109130508397997</v>
+        <v>5.365707382518313</v>
       </c>
       <c r="H8">
-        <v>2.037686121595689</v>
+        <v>1.853054682180579</v>
       </c>
       <c r="I8">
-        <v>2.912424086011872</v>
+        <v>2.673869184311179</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.06485976554668</v>
+        <v>14.20270826280743</v>
       </c>
       <c r="L8">
-        <v>6.961534792961918</v>
+        <v>12.10112495971814</v>
       </c>
       <c r="M8">
-        <v>11.3914728943085</v>
+        <v>8.917284121014408</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.028711805455826</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.47094268042181</v>
       </c>
       <c r="P8">
-        <v>12.87093923519281</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.77330279699239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.60127041194124</v>
+      </c>
+      <c r="S8">
+        <v>15.87640278939729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.38496859830034</v>
+        <v>14.09231642579036</v>
       </c>
       <c r="C9">
-        <v>9.284356097592596</v>
+        <v>9.839345516475493</v>
       </c>
       <c r="D9">
-        <v>8.765748780876878</v>
+        <v>9.033284248420976</v>
       </c>
       <c r="E9">
-        <v>12.96035313225193</v>
+        <v>13.16135625563515</v>
       </c>
       <c r="F9">
-        <v>24.90450793232545</v>
+        <v>23.88373495170536</v>
       </c>
       <c r="G9">
-        <v>2.100924690374288</v>
+        <v>4.38315526959671</v>
       </c>
       <c r="H9">
-        <v>1.583071910208405</v>
+        <v>1.721185758514978</v>
       </c>
       <c r="I9">
-        <v>2.579624772780233</v>
+        <v>2.564061373428699</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.99009178946238</v>
+        <v>14.09575310654394</v>
       </c>
       <c r="L9">
-        <v>7.445834762942772</v>
+        <v>11.79588537193832</v>
       </c>
       <c r="M9">
-        <v>13.02077566093754</v>
+        <v>9.090959900412775</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.487518818661259</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.05905856601081</v>
       </c>
       <c r="P9">
-        <v>12.54540841086478</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.0390040557743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.32921455248623</v>
+      </c>
+      <c r="S9">
+        <v>16.12581045587208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.60931334642806</v>
+        <v>15.19278245556439</v>
       </c>
       <c r="C10">
-        <v>10.0442780400458</v>
+        <v>10.58844541509546</v>
       </c>
       <c r="D10">
-        <v>9.313059685695173</v>
+        <v>9.64031857813643</v>
       </c>
       <c r="E10">
-        <v>13.62700549296993</v>
+        <v>13.83269916972978</v>
       </c>
       <c r="F10">
-        <v>25.57578922608196</v>
+        <v>24.29117851012045</v>
       </c>
       <c r="G10">
-        <v>2.09536122949173</v>
+        <v>4.982311867910787</v>
       </c>
       <c r="H10">
-        <v>1.908553204209539</v>
+        <v>2.011164107769575</v>
       </c>
       <c r="I10">
-        <v>2.602494784880988</v>
+        <v>2.740943691808083</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.9026554633964</v>
+        <v>13.8855143464524</v>
       </c>
       <c r="L10">
-        <v>7.670373578829672</v>
+        <v>11.48126618883932</v>
       </c>
       <c r="M10">
-        <v>14.06843171015832</v>
+        <v>9.176646965913775</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.688233697503044</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.01731304142277</v>
       </c>
       <c r="P10">
-        <v>12.31428825089199</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.18342320758962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.14338704166665</v>
+      </c>
+      <c r="S10">
+        <v>16.0879685535941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.9185537306005</v>
+        <v>15.41120878170796</v>
       </c>
       <c r="C11">
-        <v>10.06421396245265</v>
+        <v>10.36052837602727</v>
       </c>
       <c r="D11">
-        <v>8.716148418414166</v>
+        <v>9.152528572665281</v>
       </c>
       <c r="E11">
-        <v>11.93986695533122</v>
+        <v>12.18467665098035</v>
       </c>
       <c r="F11">
-        <v>24.51252581017868</v>
+        <v>22.79636754441539</v>
       </c>
       <c r="G11">
-        <v>2.093947990536946</v>
+        <v>8.453363857303074</v>
       </c>
       <c r="H11">
-        <v>2.809369875580797</v>
+        <v>2.866257853102032</v>
       </c>
       <c r="I11">
-        <v>2.670178243767189</v>
+        <v>2.789526187806233</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.46369995111469</v>
+        <v>13.29542118086891</v>
       </c>
       <c r="L11">
-        <v>6.872218574669501</v>
+        <v>11.01527998635922</v>
       </c>
       <c r="M11">
-        <v>14.27710732375232</v>
+        <v>8.787337317780517</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.876386435919181</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.084748664438</v>
       </c>
       <c r="P11">
-        <v>12.2289614903356</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.63031354593124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.11728281025996</v>
+      </c>
+      <c r="S11">
+        <v>15.2245695830604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.95069489213049</v>
+        <v>15.41796561181792</v>
       </c>
       <c r="C12">
-        <v>9.890150684446114</v>
+        <v>10.04632401216913</v>
       </c>
       <c r="D12">
-        <v>8.08515269554241</v>
+        <v>8.567410123932145</v>
       </c>
       <c r="E12">
-        <v>10.40700772401413</v>
+        <v>10.66838742489095</v>
       </c>
       <c r="F12">
-        <v>23.48970703804491</v>
+        <v>21.60928750085783</v>
       </c>
       <c r="G12">
-        <v>2.093804955558924</v>
+        <v>10.26010530392163</v>
       </c>
       <c r="H12">
-        <v>4.093520228243047</v>
+        <v>4.129371669065959</v>
       </c>
       <c r="I12">
-        <v>2.6780275596642</v>
+        <v>2.791894377454402</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.1340410116163</v>
+        <v>12.93344568085062</v>
       </c>
       <c r="L12">
-        <v>6.234700647584988</v>
+        <v>10.75993332542446</v>
       </c>
       <c r="M12">
-        <v>14.24036558785016</v>
+        <v>8.505733863965379</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.239149479815496</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.98556393247221</v>
       </c>
       <c r="P12">
-        <v>12.21597144138594</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.14774412450867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.14754560567759</v>
+      </c>
+      <c r="S12">
+        <v>14.63044873368736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.75353194912253</v>
+        <v>15.26210941741865</v>
       </c>
       <c r="C13">
-        <v>9.585701147680631</v>
+        <v>9.716572466577986</v>
       </c>
       <c r="D13">
-        <v>7.380269303426271</v>
+        <v>7.841098164559686</v>
       </c>
       <c r="E13">
-        <v>8.893242734249625</v>
+        <v>9.148772197685744</v>
       </c>
       <c r="F13">
-        <v>22.39590967554285</v>
+        <v>20.62673951666138</v>
       </c>
       <c r="G13">
-        <v>2.094656213227111</v>
+        <v>9.891854313136363</v>
       </c>
       <c r="H13">
-        <v>5.448021535217411</v>
+        <v>5.461325080652482</v>
       </c>
       <c r="I13">
-        <v>2.646097365487644</v>
+        <v>2.767052742950169</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.84604442758391</v>
+        <v>12.72813846138766</v>
       </c>
       <c r="L13">
-        <v>5.701951297046323</v>
+        <v>10.63390344827453</v>
       </c>
       <c r="M13">
-        <v>14.01116975479567</v>
+        <v>8.30615682810512</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.71941672456561</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.77575667022948</v>
       </c>
       <c r="P13">
-        <v>12.25436032179913</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.66600402420439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.2016270145299</v>
+      </c>
+      <c r="S13">
+        <v>14.23841206858362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.5052223096517</v>
+        <v>15.07275543838823</v>
       </c>
       <c r="C14">
-        <v>9.316448006939918</v>
+        <v>9.478484039926776</v>
       </c>
       <c r="D14">
-        <v>6.847361855747201</v>
+        <v>7.264500992578053</v>
       </c>
       <c r="E14">
-        <v>7.866248938192134</v>
+        <v>8.110300187076916</v>
       </c>
       <c r="F14">
-        <v>21.59225941282215</v>
+        <v>20.01435286307844</v>
       </c>
       <c r="G14">
-        <v>2.095700658780397</v>
+        <v>8.691431754849406</v>
       </c>
       <c r="H14">
-        <v>6.479551832355941</v>
+        <v>6.458784232167456</v>
       </c>
       <c r="I14">
-        <v>2.607266601781839</v>
+        <v>2.738940825705195</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.66186799682132</v>
+        <v>12.64506768750786</v>
       </c>
       <c r="L14">
-        <v>5.409764265953956</v>
+        <v>10.59313984314797</v>
       </c>
       <c r="M14">
-        <v>13.76061148325129</v>
+        <v>8.199026273648286</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.440944492684126</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.57480203323574</v>
       </c>
       <c r="P14">
-        <v>12.30467852317978</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.32692762767578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.24652032525474</v>
+      </c>
+      <c r="S14">
+        <v>14.04262185559054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.38944350580852</v>
+        <v>14.98451464841163</v>
       </c>
       <c r="C15">
-        <v>9.230556669027782</v>
+        <v>9.421041092737608</v>
       </c>
       <c r="D15">
-        <v>6.702626793855032</v>
+        <v>7.0971425282276</v>
       </c>
       <c r="E15">
-        <v>7.617693422711618</v>
+        <v>7.856897411182358</v>
       </c>
       <c r="F15">
-        <v>21.37669819438279</v>
+        <v>19.89238473146813</v>
       </c>
       <c r="G15">
-        <v>2.096185961353342</v>
+        <v>8.011190494181925</v>
       </c>
       <c r="H15">
-        <v>6.718256713234526</v>
+        <v>6.696870359451351</v>
       </c>
       <c r="I15">
-        <v>2.590892788003419</v>
+        <v>2.728202740206987</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.62164301628107</v>
+        <v>12.64757011882496</v>
       </c>
       <c r="L15">
-        <v>5.350128680881237</v>
+        <v>10.60146668970584</v>
       </c>
       <c r="M15">
-        <v>13.65714042260568</v>
+        <v>8.183727576517331</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.386343891846619</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.49903698146617</v>
       </c>
       <c r="P15">
-        <v>12.32670556963173</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.24103783594687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.26034688863167</v>
+      </c>
+      <c r="S15">
+        <v>14.0250048874057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.90682941837277</v>
+        <v>14.61363794623806</v>
       </c>
       <c r="C16">
-        <v>8.970897937116998</v>
+        <v>9.332533093786385</v>
       </c>
       <c r="D16">
-        <v>6.573849770899874</v>
+        <v>6.869615004662312</v>
       </c>
       <c r="E16">
-        <v>7.561516867896506</v>
+        <v>7.784932777199298</v>
       </c>
       <c r="F16">
-        <v>21.2763709928829</v>
+        <v>20.18153757745522</v>
       </c>
       <c r="G16">
-        <v>2.098390810400573</v>
+        <v>5.116039886475165</v>
       </c>
       <c r="H16">
-        <v>6.509627604701645</v>
+        <v>6.480485672159182</v>
       </c>
       <c r="I16">
-        <v>2.507018625924727</v>
+        <v>2.668944165288192</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.71016744789613</v>
+        <v>12.88535007615219</v>
       </c>
       <c r="L16">
-        <v>5.346302127611143</v>
+        <v>10.79679566638158</v>
       </c>
       <c r="M16">
-        <v>13.25795034784086</v>
+        <v>8.302363202770097</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.398331262678304</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.23080183723924</v>
       </c>
       <c r="P16">
-        <v>12.40955360335418</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.26439455287319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.2875231965271</v>
+      </c>
+      <c r="S16">
+        <v>14.3249068392561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.66638621308633</v>
+        <v>14.41592749856371</v>
       </c>
       <c r="C17">
-        <v>8.919510435674963</v>
+        <v>9.369715906739682</v>
       </c>
       <c r="D17">
-        <v>6.769385520137604</v>
+        <v>7.024996803718381</v>
       </c>
       <c r="E17">
-        <v>8.062236982490607</v>
+        <v>8.277785073129863</v>
       </c>
       <c r="F17">
-        <v>21.63147090552516</v>
+        <v>20.68960538245832</v>
       </c>
       <c r="G17">
-        <v>2.09953583990102</v>
+        <v>4.283411418122944</v>
       </c>
       <c r="H17">
-        <v>5.769150452184349</v>
+        <v>5.731952591626327</v>
       </c>
       <c r="I17">
-        <v>2.554833406037531</v>
+        <v>2.637573361500084</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.87453740109489</v>
+        <v>13.09799883870983</v>
       </c>
       <c r="L17">
-        <v>5.48339968355974</v>
+        <v>10.96897287083451</v>
       </c>
       <c r="M17">
-        <v>13.08496592358259</v>
+        <v>8.43119630016376</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.540656952640047</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.11550883539535</v>
       </c>
       <c r="P17">
-        <v>12.44751454962624</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.46287370920408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.29664240075975</v>
+      </c>
+      <c r="S17">
+        <v>14.62909978239711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.62677390701177</v>
+        <v>14.3790102343148</v>
       </c>
       <c r="C18">
-        <v>9.026708594788966</v>
+        <v>9.542309225217325</v>
       </c>
       <c r="D18">
-        <v>7.265545453230557</v>
+        <v>7.506705043090846</v>
       </c>
       <c r="E18">
-        <v>9.175710439220294</v>
+        <v>9.381231964034505</v>
       </c>
       <c r="F18">
-        <v>22.4339372331332</v>
+        <v>21.53861561176726</v>
       </c>
       <c r="G18">
-        <v>2.099830655088274</v>
+        <v>4.050706678865621</v>
       </c>
       <c r="H18">
-        <v>4.504856693093494</v>
+        <v>4.455932400493872</v>
       </c>
       <c r="I18">
-        <v>2.559540524216049</v>
+        <v>2.623353522082278</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.13518870356974</v>
+        <v>13.35669158443956</v>
       </c>
       <c r="L18">
-        <v>5.840050767442237</v>
+        <v>11.16859730479207</v>
       </c>
       <c r="M18">
-        <v>13.09418535371928</v>
+        <v>8.618154169276503</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.895440440584477</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.14792721802729</v>
       </c>
       <c r="P18">
-        <v>12.45473632138719</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.84442353024662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.28594757475726</v>
+      </c>
+      <c r="S18">
+        <v>15.03972845972506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.7277963299088</v>
+        <v>14.45753303676755</v>
       </c>
       <c r="C19">
-        <v>9.297105627963182</v>
+        <v>9.871296689576315</v>
       </c>
       <c r="D19">
-        <v>7.97069719387318</v>
+        <v>8.21149656135886</v>
       </c>
       <c r="E19">
-        <v>10.7642060237055</v>
+        <v>10.95934695536259</v>
       </c>
       <c r="F19">
-        <v>23.50569885560754</v>
+        <v>22.59866671425477</v>
       </c>
       <c r="G19">
-        <v>2.09938378681802</v>
+        <v>3.936395136000677</v>
       </c>
       <c r="H19">
-        <v>2.989430214916711</v>
+        <v>2.984696166837731</v>
       </c>
       <c r="I19">
-        <v>2.548524356132537</v>
+        <v>2.63899721254725</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.43461701514132</v>
+        <v>13.62667847147986</v>
       </c>
       <c r="L19">
-        <v>6.442294142270375</v>
+        <v>11.36937611155006</v>
       </c>
       <c r="M19">
-        <v>13.24914616944806</v>
+        <v>8.831920280211747</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.490822443186667</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.30644921091975</v>
       </c>
       <c r="P19">
-        <v>12.4439365313581</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.32232621645777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.26382715905978</v>
+      </c>
+      <c r="S19">
+        <v>15.50561723722872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.25645471909791</v>
+        <v>14.89900654335729</v>
       </c>
       <c r="C20">
-        <v>9.918612338592393</v>
+        <v>10.53445591076744</v>
       </c>
       <c r="D20">
-        <v>9.182568849413038</v>
+        <v>9.461090654990034</v>
       </c>
       <c r="E20">
-        <v>13.45052895615979</v>
+        <v>13.64239447439138</v>
       </c>
       <c r="F20">
-        <v>25.33331346866881</v>
+        <v>24.25224001641537</v>
       </c>
       <c r="G20">
-        <v>2.096853347087892</v>
+        <v>4.03511596606535</v>
       </c>
       <c r="H20">
-        <v>1.8207298154772</v>
+        <v>1.936480579557507</v>
       </c>
       <c r="I20">
-        <v>2.558401277313687</v>
+        <v>2.714340229101251</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.8761583804544</v>
+        <v>13.95368536846044</v>
       </c>
       <c r="L20">
-        <v>7.605243236019421</v>
+        <v>11.57126856980363</v>
       </c>
       <c r="M20">
-        <v>13.7982784614119</v>
+        <v>9.162176747700986</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.634262909444198</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.80966824279076</v>
       </c>
       <c r="P20">
-        <v>12.37363007162874</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.09604193053049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.19032331239935</v>
+      </c>
+      <c r="S20">
+        <v>16.14993139566554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.19283094768891</v>
+        <v>15.60207130686862</v>
       </c>
       <c r="C21">
-        <v>10.52441324973381</v>
+        <v>10.79625849908657</v>
       </c>
       <c r="D21">
-        <v>9.733606312107469</v>
+        <v>10.22996560054046</v>
       </c>
       <c r="E21">
-        <v>14.29884991474222</v>
+        <v>14.56110349891887</v>
       </c>
       <c r="F21">
-        <v>26.10263621556085</v>
+        <v>24.1134302161445</v>
       </c>
       <c r="G21">
-        <v>2.092475710283929</v>
+        <v>9.981307925001012</v>
       </c>
       <c r="H21">
-        <v>2.082139158156452</v>
+        <v>2.153506296390164</v>
       </c>
       <c r="I21">
-        <v>2.727668838610725</v>
+        <v>2.833186694635282</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.89381436115642</v>
+        <v>13.55742240471992</v>
       </c>
       <c r="L21">
-        <v>7.9417187856134</v>
+        <v>11.18426852962418</v>
       </c>
       <c r="M21">
-        <v>14.60861793696243</v>
+        <v>9.033921595088422</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.927048125122059</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.35256223209954</v>
       </c>
       <c r="P21">
-        <v>12.19749977976756</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.33298015884546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.0649253965587</v>
+      </c>
+      <c r="S21">
+        <v>15.71382455830957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.77995948853922</v>
+        <v>16.03633168840352</v>
       </c>
       <c r="C22">
-        <v>10.86021248074949</v>
+        <v>10.89293715645741</v>
       </c>
       <c r="D22">
-        <v>10.0268627525316</v>
+        <v>10.67377115955398</v>
       </c>
       <c r="E22">
-        <v>14.71548195986371</v>
+        <v>15.02971828900662</v>
       </c>
       <c r="F22">
-        <v>26.54842853982067</v>
+        <v>23.92214747879269</v>
       </c>
       <c r="G22">
-        <v>2.089716001335084</v>
+        <v>14.85365914390795</v>
       </c>
       <c r="H22">
-        <v>2.243456313202069</v>
+        <v>2.287341487243769</v>
       </c>
       <c r="I22">
-        <v>2.829509491351414</v>
+        <v>2.902650494490531</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.90601830160257</v>
+        <v>13.2774835658059</v>
       </c>
       <c r="L22">
-        <v>8.101733056807175</v>
+        <v>10.93395740614575</v>
       </c>
       <c r="M22">
-        <v>15.102370954641</v>
+        <v>8.929725377904489</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.059041622544266</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.66639400945327</v>
       </c>
       <c r="P22">
-        <v>12.08418107789823</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.4754779824231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.99685240082386</v>
+      </c>
+      <c r="S22">
+        <v>15.37908909159898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.4836405135048</v>
+        <v>15.83933307250866</v>
       </c>
       <c r="C23">
-        <v>10.65670121500126</v>
+        <v>10.86249012066213</v>
       </c>
       <c r="D23">
-        <v>9.866084293707116</v>
+        <v>10.40913113393384</v>
       </c>
       <c r="E23">
-        <v>14.49250567429164</v>
+        <v>14.76934943934291</v>
       </c>
       <c r="F23">
-        <v>26.33224177667006</v>
+        <v>24.14181959152262</v>
       </c>
       <c r="G23">
-        <v>2.091167079677418</v>
+        <v>11.4407052461201</v>
       </c>
       <c r="H23">
-        <v>2.158322783646724</v>
+        <v>2.218581963955694</v>
       </c>
       <c r="I23">
-        <v>2.770464618644797</v>
+        <v>2.861356527271511</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.91658594460724</v>
+        <v>13.48396616873012</v>
       </c>
       <c r="L23">
-        <v>8.017522240321076</v>
+        <v>11.10216641527323</v>
       </c>
       <c r="M23">
-        <v>14.84144224468008</v>
+        <v>9.037037014663108</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.992825445836406</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.52799581745585</v>
       </c>
       <c r="P23">
-        <v>12.14475926308782</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.41558945051237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.02743186602264</v>
+      </c>
+      <c r="S23">
+        <v>15.64544713790003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.28267651373663</v>
+        <v>14.92419777149549</v>
       </c>
       <c r="C24">
-        <v>9.899735292587756</v>
+        <v>10.52302167435004</v>
       </c>
       <c r="D24">
-        <v>9.243816479038326</v>
+        <v>9.521042479978455</v>
       </c>
       <c r="E24">
-        <v>13.62087406636496</v>
+        <v>13.81169466916466</v>
       </c>
       <c r="F24">
-        <v>25.47858898311806</v>
+        <v>24.40170577543202</v>
       </c>
       <c r="G24">
-        <v>2.096797909577186</v>
+        <v>3.993800017613176</v>
       </c>
       <c r="H24">
-        <v>1.827433608954708</v>
+        <v>1.943574187597589</v>
       </c>
       <c r="I24">
-        <v>2.55055514630361</v>
+        <v>2.704744621905566</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.93766601262448</v>
+        <v>14.01294393565344</v>
       </c>
       <c r="L24">
-        <v>7.688834732366434</v>
+        <v>11.6154130141218</v>
       </c>
       <c r="M24">
-        <v>13.80842159746144</v>
+        <v>9.208499067347525</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.717501217509169</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.82180673759043</v>
       </c>
       <c r="P24">
-        <v>12.37627722917958</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.17328568260509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.19008602117925</v>
+      </c>
+      <c r="S24">
+        <v>16.22967640430135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.86728931146867</v>
+        <v>13.61977664796809</v>
       </c>
       <c r="C25">
-        <v>9.025533822755136</v>
+        <v>9.569130744926872</v>
       </c>
       <c r="D25">
-        <v>8.527300739327265</v>
+        <v>8.778533031992962</v>
       </c>
       <c r="E25">
-        <v>12.61730215675885</v>
+        <v>12.81986224903916</v>
       </c>
       <c r="F25">
-        <v>24.56155293573199</v>
+        <v>23.61307045843361</v>
       </c>
       <c r="G25">
-        <v>2.103113925308367</v>
+        <v>4.46722181335922</v>
       </c>
       <c r="H25">
-        <v>1.66981244845197</v>
+        <v>1.604936520459516</v>
       </c>
       <c r="I25">
-        <v>2.684430450021802</v>
+        <v>2.505048224375122</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.98006328991306</v>
+        <v>14.12114560162433</v>
       </c>
       <c r="L25">
-        <v>7.31704351266219</v>
+        <v>11.87573259546164</v>
       </c>
       <c r="M25">
-        <v>12.60019014728749</v>
+        <v>9.028209625292487</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.367454954754894</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.66595197877921</v>
       </c>
       <c r="P25">
-        <v>12.63133142757008</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.93630539047578</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.40139886105629</v>
+      </c>
+      <c r="S25">
+        <v>16.07043262257551</v>
       </c>
     </row>
   </sheetData>
